--- a/Sample Bnumber List.xlsx
+++ b/Sample Bnumber List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reyno\PycharmProjects\Student Access Data Entry Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209EB9E2-69EB-433C-A0B2-5FE65370F7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2312B38-5177-4E3D-9126-0198D152804D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{952E855C-B277-45F2-B072-F147F81CCE7D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>First Name</t>
   </si>
@@ -47,28 +47,25 @@
     <t>B Number</t>
   </si>
   <si>
-    <t>Reynoso-Perez</t>
-  </si>
-  <si>
-    <t>B00735305</t>
-  </si>
-  <si>
-    <t>Nyx</t>
-  </si>
-  <si>
-    <t>Elizebeth</t>
-  </si>
-  <si>
-    <t>Nichols</t>
-  </si>
-  <si>
-    <t>B00801848</t>
-  </si>
-  <si>
     <t>Middle Name</t>
   </si>
   <si>
-    <t>David</t>
+    <t>Test_one</t>
+  </si>
+  <si>
+    <t>Test_two</t>
+  </si>
+  <si>
+    <t>middle test</t>
+  </si>
+  <si>
+    <t>Middle test two</t>
+  </si>
+  <si>
+    <t>Last Name Test</t>
+  </si>
+  <si>
+    <t>Last Name Test 2</t>
   </si>
 </sst>
 </file>
@@ -423,14 +420,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.9296875" customWidth="1"/>
-    <col min="2" max="2" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -438,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -449,13 +446,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -463,13 +463,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Sample Bnumber List.xlsx
+++ b/Sample Bnumber List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reyno\PycharmProjects\Student Access Data Entry Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2312B38-5177-4E3D-9126-0198D152804D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6815FBCF-8C28-4069-A74F-B8C6C864420C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{952E855C-B277-45F2-B072-F147F81CCE7D}"/>
+    <workbookView xWindow="2107" yWindow="2033" windowWidth="16201" windowHeight="9712" xr2:uid="{952E855C-B277-45F2-B072-F147F81CCE7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>First Name</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>Last Name Test 2</t>
+  </si>
+  <si>
+    <t>Test_three</t>
+  </si>
+  <si>
+    <t>Last Name Test 3</t>
+  </si>
+  <si>
+    <t>Middle three</t>
   </si>
 </sst>
 </file>
@@ -417,16 +426,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAB3C68-1503-4411-AD5C-33A9BA42AF28}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.9296875" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -472,6 +481,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sample Bnumber List.xlsx
+++ b/Sample Bnumber List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reyno\PycharmProjects\Student Access Data Entry Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6815FBCF-8C28-4069-A74F-B8C6C864420C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81F90B3-4411-4AFD-BA1B-AB8C0234F760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2107" yWindow="2033" windowWidth="16201" windowHeight="9712" xr2:uid="{952E855C-B277-45F2-B072-F147F81CCE7D}"/>
+    <workbookView xWindow="3787" yWindow="1845" windowWidth="16200" windowHeight="9983" xr2:uid="{952E855C-B277-45F2-B072-F147F81CCE7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,45 +36,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>B Number</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
   <si>
     <t>First Name</t>
   </si>
   <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>B Number</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Test_one</t>
-  </si>
-  <si>
-    <t>Test_two</t>
-  </si>
-  <si>
-    <t>middle test</t>
-  </si>
-  <si>
-    <t>Middle test two</t>
-  </si>
-  <si>
-    <t>Last Name Test</t>
-  </si>
-  <si>
-    <t>Last Name Test 2</t>
-  </si>
-  <si>
-    <t>Test_three</t>
-  </si>
-  <si>
-    <t>Last Name Test 3</t>
-  </si>
-  <si>
-    <t>Middle three</t>
+    <t xml:space="preserve">Jim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jane </t>
+  </si>
+  <si>
+    <t>Aiden</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Maleficent</t>
+  </si>
+  <si>
+    <t>Jaundice</t>
   </si>
 </sst>
 </file>
@@ -429,28 +423,28 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -458,7 +452,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -472,10 +466,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -483,13 +477,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>3</v>

--- a/Sample Bnumber List.xlsx
+++ b/Sample Bnumber List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reyno\PycharmProjects\Student Access Data Entry Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81F90B3-4411-4AFD-BA1B-AB8C0234F760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D64B8B-880A-4CCA-A2E1-7DCB91E848E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3787" yWindow="1845" windowWidth="16200" windowHeight="9983" xr2:uid="{952E855C-B277-45F2-B072-F147F81CCE7D}"/>
+    <workbookView xWindow="255" yWindow="2573" windowWidth="14145" windowHeight="9982" xr2:uid="{952E855C-B277-45F2-B072-F147F81CCE7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
